--- a/data/trans_camb/P23_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 0,21</t>
+          <t>-11,78; 0,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 4,01</t>
+          <t>-7,98; 3,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,73; -4,09</t>
+          <t>-20,7; -4,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 5,83</t>
+          <t>-6,18; 5,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,73; -0,4</t>
+          <t>-12,8; -0,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-20,44; -5,2</t>
+          <t>-20,65; -5,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 1,17</t>
+          <t>-7,75; 1,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 0,39</t>
+          <t>-8,54; 0,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-18,76; -7,2</t>
+          <t>-18,52; -6,73</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 0,66</t>
+          <t>-30,38; 0,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,54; 12,09</t>
+          <t>-20,5; 11,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-56,37; -12,99</t>
+          <t>-54,56; -13,99</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 19,36</t>
+          <t>-17,34; 18,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,93; -1,4</t>
+          <t>-35,67; -1,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-57,59; -16,31</t>
+          <t>-57,89; -17,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,37; 3,57</t>
+          <t>-21,2; 3,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,34; 1,28</t>
+          <t>-23,14; 0,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-51,43; -21,77</t>
+          <t>-51,39; -20,58</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 0,13</t>
+          <t>-10,79; 0,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,54; 1,11</t>
+          <t>-10,69; 0,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,42; -7,19</t>
+          <t>-21,73; -7,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 10,2</t>
+          <t>0,06; 10,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 8,69</t>
+          <t>-3,06; 8,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,04; -5,35</t>
+          <t>-22,1; -5,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 3,27</t>
+          <t>-4,66; 3,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 2,55</t>
+          <t>-5,56; 2,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-21,25; -9,87</t>
+          <t>-21,74; -9,8</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,59; 0,48</t>
+          <t>-20,8; 0,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 2,44</t>
+          <t>-20,88; 0,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-41,72; -15,48</t>
+          <t>-42,23; -15,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 31,75</t>
+          <t>0,23; 34,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 26,88</t>
+          <t>-7,69; 26,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-59,31; -16,87</t>
+          <t>-60,68; -18,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 7,95</t>
+          <t>-10,26; 8,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 6,29</t>
+          <t>-12,6; 5,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,72; -24,02</t>
+          <t>-49,36; -23,68</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,93; -0,31</t>
+          <t>-11,79; -0,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,59; -6,41</t>
+          <t>-17,95; -6,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,81; -18,65</t>
+          <t>-29,63; -18,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 2,22</t>
+          <t>-7,78; 2,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 1,01</t>
+          <t>-8,67; 1,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,7; -7,13</t>
+          <t>-17,08; -7,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,6; -0,61</t>
+          <t>-8,09; -0,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-12,2; -4,11</t>
+          <t>-11,19; -3,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-21,62; -14,19</t>
+          <t>-21,57; -14,38</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,5; -0,52</t>
+          <t>-21,29; -1,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,89; -12,33</t>
+          <t>-32,92; -13,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-54,58; -37,95</t>
+          <t>-54,65; -38,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,67; 6,36</t>
+          <t>-19,6; 6,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 2,92</t>
+          <t>-21,69; 5,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-42,77; -21,05</t>
+          <t>-43,57; -21,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-18,48; -1,3</t>
+          <t>-17,34; -1,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-26,05; -9,69</t>
+          <t>-24,45; -9,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-46,65; -33,26</t>
+          <t>-46,88; -33,86</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 7,79</t>
+          <t>-4,59; 7,94</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 5,04</t>
+          <t>-6,66; 4,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-37,57; -13,43</t>
+          <t>-37,62; -12,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,68; 16,85</t>
+          <t>5,68; 17,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,89; 13,95</t>
+          <t>3,21; 13,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 0,12</t>
+          <t>-10,26; 0,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,92; 10,54</t>
+          <t>2,03; 10,46</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 7,64</t>
+          <t>-0,49; 7,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-23,19; -8,35</t>
+          <t>-23,53; -9,03</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 19,27</t>
+          <t>-9,93; 19,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 12,64</t>
+          <t>-14,18; 12,24</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-76,97; -31,18</t>
+          <t>-80,27; -29,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18,86; 69,98</t>
+          <t>18,93; 70,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>9,69; 57,92</t>
+          <t>10,0; 56,32</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,96; 0,66</t>
+          <t>-33,33; 0,63</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,04; 31,51</t>
+          <t>5,43; 31,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 23,04</t>
+          <t>-1,29; 23,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-61,98; -24,17</t>
+          <t>-65,93; -25,78</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 9,65</t>
+          <t>-3,3; 10,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 3,9</t>
+          <t>-8,83; 4,31</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 3,98</t>
+          <t>-8,18; 3,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,79</t>
+          <t>-1,02; 8,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>6,04; 16,14</t>
+          <t>6,1; 16,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,21; 14,38</t>
+          <t>6,18; 14,76</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 7,66</t>
+          <t>-1,08; 7,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 9,04</t>
+          <t>0,46; 9,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,29; 8,55</t>
+          <t>0,73; 8,39</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-12,23; 32,04</t>
+          <t>-9,7; 33,89</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 12,9</t>
+          <t>-24,55; 14,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,38; 13,11</t>
+          <t>-22,23; 13,27</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 91,92</t>
+          <t>-7,5; 89,7</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>43,04; 167,13</t>
+          <t>43,28; 174,66</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>42,13; 156,23</t>
+          <t>42,51; 169,33</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 37,99</t>
+          <t>-4,7; 40,61</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>0,99; 44,47</t>
+          <t>2,0; 45,28</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>5,42; 44,1</t>
+          <t>3,24; 43,59</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 5,17</t>
+          <t>-7,73; 4,84</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 4,92</t>
+          <t>-6,64; 5,29</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 5,42</t>
+          <t>-5,28; 5,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,84; 6,62</t>
+          <t>0,82; 6,7</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,43</t>
+          <t>3,18; 9,77</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 11,06</t>
+          <t>0,84; 11,38</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 4,64</t>
+          <t>-2,03; 4,91</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 7,05</t>
+          <t>-0,21; 6,31</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 6,92</t>
+          <t>-4,0; 6,96</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-36,35; 34,25</t>
+          <t>-39,09; 32,27</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-34,93; 31,38</t>
+          <t>-31,92; 35,59</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 36,21</t>
+          <t>-23,45; 35,91</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>18,04; 660,89</t>
+          <t>11,32; 731,73</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>98,45; 1066,5</t>
+          <t>87,98; 1043,88</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>17,5; 903,12</t>
+          <t>32,49; 971,51</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-16,34; 59,59</t>
+          <t>-19,12; 63,0</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 86,14</t>
+          <t>-2,1; 78,58</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-39,15; 80,54</t>
+          <t>-34,58; 82,58</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 5,8</t>
+          <t>-6,03; 6,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,33; 3,65</t>
+          <t>-7,06; 3,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-9,39; 0,05</t>
+          <t>-9,21; 0,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,47</t>
+          <t>-2,1; 1,49</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,99</t>
+          <t>-1,51; 2,67</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,4</t>
+          <t>-1,74; 1,44</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 2,32</t>
+          <t>-2,7; 2,6</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 2,19</t>
+          <t>-2,45; 2,31</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 0,6</t>
+          <t>-3,69; 0,59</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 84,04</t>
+          <t>-44,11; 77,3</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-46,38; 52,18</t>
+          <t>-50,15; 47,66</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-65,45; 3,65</t>
+          <t>-64,05; 10,58</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 578,47</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-64,61; 866,24</t>
+          <t>-75,79; 507,72</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-71,54; 350,49</t>
+          <t>-68,26; 366,94</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-47,45; 62,52</t>
+          <t>-43,68; 73,1</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-41,06; 61,7</t>
+          <t>-40,03; 65,0</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-56,87; 19,17</t>
+          <t>-54,7; 19,16</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-5,54; -0,83</t>
+          <t>-5,24; -0,41</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -2,86</t>
+          <t>-7,42; -2,75</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-20,85; -12,74</t>
+          <t>-20,87; -12,54</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,53</t>
+          <t>0,31; 4,62</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,66</t>
+          <t>-0,55; 3,6</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -4,36</t>
+          <t>-10,15; -4,56</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,31</t>
+          <t>-2,01; 1,38</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,48; -0,19</t>
+          <t>-3,55; -0,25</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -9,3</t>
+          <t>-14,02; -9,13</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-13,46; -2,18</t>
+          <t>-12,72; -1,18</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-18,49; -7,39</t>
+          <t>-17,95; -7,1</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-51,93; -32,69</t>
+          <t>-52,11; -32,38</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>0,3; 18,97</t>
+          <t>1,15; 19,73</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 15,9</t>
+          <t>-1,87; 15,5</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-40,34; -19,15</t>
+          <t>-40,53; -19,35</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 4,12</t>
+          <t>-6,13; 4,46</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -0,56</t>
+          <t>-10,88; -0,86</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-44,24; -29,48</t>
+          <t>-43,5; -29,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Edad-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
